--- a/Lab5/Data.xlsx
+++ b/Lab5/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cse467_lab\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEFF24B-A336-4696-ACD6-CC9588837DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5232A13-42DE-46D9-AD6B-0766E8F63EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{38B68ABF-7E29-4B36-BF14-ADAFC4023512}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38B68ABF-7E29-4B36-BF14-ADAFC4023512}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LOOPS</t>
   </si>
   <si>
-    <t>IO Pin (u Seconds)</t>
-  </si>
-  <si>
-    <t>Micros (uS)</t>
-  </si>
-  <si>
-    <t>Timer (uS)</t>
-  </si>
-  <si>
-    <t>Timer (S)</t>
+    <t>Timer Counts</t>
+  </si>
+  <si>
+    <t>Prescaler</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Timer / Tick</t>
+  </si>
+  <si>
+    <t>Micros (uSeconds)</t>
+  </si>
+  <si>
+    <t>IO Pin (uSeconds)</t>
+  </si>
+  <si>
+    <t>Timer (Seconds)</t>
   </si>
 </sst>
 </file>
@@ -86,15 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -110,15 +120,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F90F7C77-17E3-4B94-867B-8E9251D927EA}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{F90F7C77-17E3-4B94-867B-8E9251D927EA}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F90F7C77-17E3-4B94-867B-8E9251D927EA}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{F90F7C77-17E3-4B94-867B-8E9251D927EA}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B2E8FDE1-12B2-4C01-ACDA-86C69074F6F8}" name="LOOPS"/>
-    <tableColumn id="2" xr3:uid="{7785CD60-2161-48F8-B47D-8815C437F99C}" name="IO Pin (u Seconds)"/>
-    <tableColumn id="3" xr3:uid="{FB6CB4F5-1518-4A40-AA78-770833B0E294}" name="Micros (uS)"/>
-    <tableColumn id="4" xr3:uid="{E26FA6A0-08B5-4D7A-B8F2-5AB97BA5CA4A}" name="Timer (S)"/>
-    <tableColumn id="5" xr3:uid="{3D696E94-FD52-492A-8626-1944D0FEC337}" name="Timer (uS)" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Timer (S)]]/1000000</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{7785CD60-2161-48F8-B47D-8815C437F99C}" name="IO Pin (uSeconds)"/>
+    <tableColumn id="3" xr3:uid="{FB6CB4F5-1518-4A40-AA78-770833B0E294}" name="Micros (uSeconds)"/>
+    <tableColumn id="10" xr3:uid="{40743A36-417C-40A4-AC41-AAE5124AD106}" name="Timer Counts"/>
+    <tableColumn id="11" xr3:uid="{5C96B5D9-F7B1-49A0-807C-5F569389F656}" name="Prescaler"/>
+    <tableColumn id="12" xr3:uid="{8A73E025-46A0-48DA-94FB-A3FC45A016D5}" name="Timer (Seconds)" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Timer Counts]]*Table1[[#This Row],[Prescaler]]*$D$8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -442,38 +453,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A03E6F5-20A2-4722-9EF6-DE9CE480BE8E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,14 +499,17 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2.4999999999999999E-7</v>
+        <v>151</v>
       </c>
       <c r="E2">
-        <f>Table1[[#This Row],[Timer (S)]]/1000000</f>
-        <v>2.4999999999999999E-13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Table1[[#This Row],[Timer Counts]]*Table1[[#This Row],[Prescaler]]*$D$8</f>
+        <v>9.437499999999999E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -501,12 +519,18 @@
       <c r="C3">
         <v>68</v>
       </c>
+      <c r="D3">
+        <v>1048</v>
+      </c>
       <c r="E3">
-        <f>Table1[[#This Row],[Timer (S)]]/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Table1[[#This Row],[Timer Counts]]*Table1[[#This Row],[Prescaler]]*$D$8</f>
+        <v>6.5499999999999993E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -516,12 +540,18 @@
       <c r="C4">
         <v>652</v>
       </c>
+      <c r="D4">
+        <v>10318</v>
+      </c>
       <c r="E4">
-        <f>Table1[[#This Row],[Timer (S)]]/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Table1[[#This Row],[Timer Counts]]*Table1[[#This Row],[Prescaler]]*$D$8</f>
+        <v>6.4487499999999994E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -531,9 +561,32 @@
       <c r="C5">
         <v>6480</v>
       </c>
+      <c r="D5">
+        <v>12877</v>
+      </c>
       <c r="E5">
-        <f>Table1[[#This Row],[Timer (S)]]/1000000</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Table1[[#This Row],[Timer Counts]]*Table1[[#This Row],[Prescaler]]*$D$8</f>
+        <v>6.4384999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <f>1/D7</f>
+        <v>6.2499999999999997E-8</v>
       </c>
     </row>
   </sheetData>
